--- a/数据整理/stocks/A股/深证主板/002643-万润股份.xlsx
+++ b/数据整理/stocks/A股/深证主板/002643-万润股份.xlsx
@@ -8,6 +8,7 @@
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -2616,7 +2617,6 @@
           <t>光大阳光优选一年持有混合B</t>
         </is>
       </c>
-      <c r="D27" t="inlineStr"/>
       <c r="E27" t="inlineStr">
         <is>
           <t>88.04</t>
@@ -2648,7 +2648,6 @@
           <t>光大阳光优选一年持有混合C</t>
         </is>
       </c>
-      <c r="D28" t="inlineStr"/>
       <c r="E28" t="inlineStr">
         <is>
           <t>88.04</t>
@@ -2664,6 +2663,738 @@
       </c>
       <c r="H28" t="n">
         <v>7</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H19"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>100026</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>富国天合稳健混合</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>57.98</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>82.83</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>5.32</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>3.0845</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>002593</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>富国美丽中国混合</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>67.00</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>82.08</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>4.60</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>3.0820</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>007016</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>富国睿泽回报混合</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>6.70</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>76.22</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>5.23</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.3504</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>860016</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>光大阳光启明星创新驱动主题混合A</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>9.21</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>90.77</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>3.57</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.3288</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>005535</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>泰信竞争优选灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>3.21</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>92.52</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>7.28</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.2337</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>290006</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>泰信蓝筹精选混合</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>2.82</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>92.41</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>7.52</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.2121</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>860006</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>光大阳光优选一年持有混合A</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>1.86</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>86.67</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>3.53</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.0657</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>000526</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>国泰浓益灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>8.00</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>21.83</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>0.67</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.0536</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>501017</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>国泰融丰外延增长灵活配置混合（LOF）</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>8.71</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>20.43</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>0.55</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.0479</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>009691</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>国泰浩益18个月封闭运作混合A</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>7.97</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>20.75</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>0.56</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.0446</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>003495</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>鹏华弘尚灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>7.18</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>20.28</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>0.54</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.0388</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>002059</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>国泰浓益灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>4.90</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>21.83</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>0.67</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.0328</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>003496</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>鹏华弘尚灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>1.36</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>20.28</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>0.54</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.0073</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>009692</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>国泰浩益18个月封闭运作混合C</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>0.27</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>20.75</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>0.56</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.0015</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>860055</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>光大阳光优选一年持有混合B</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>86.67</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>3.53</t>
+        </is>
+      </c>
+      <c r="G16" t="n">
+        <v>0</v>
+      </c>
+      <c r="H16" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>860056</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>光大阳光优选一年持有混合C</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>86.67</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>3.53</t>
+        </is>
+      </c>
+      <c r="G17" t="n">
+        <v>0</v>
+      </c>
+      <c r="H17" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>860052</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>光大阳光启明星创新驱动主题混合B</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>90.77</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>3.57</t>
+        </is>
+      </c>
+      <c r="G18" t="n">
+        <v>0</v>
+      </c>
+      <c r="H18" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>860053</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>光大阳光启明星创新驱动主题混合C</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>90.77</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>3.57</t>
+        </is>
+      </c>
+      <c r="G19" t="n">
+        <v>0</v>
+      </c>
+      <c r="H19" t="n">
+        <v>8</v>
       </c>
     </row>
   </sheetData>

--- a/数据整理/stocks/A股/深证主板/002643-万润股份.xlsx
+++ b/数据整理/stocks/A股/深证主板/002643-万润股份.xlsx
@@ -9,6 +9,7 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -3400,4 +3401,630 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H16"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>166019</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>中欧价值智选回报混合A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>161.80</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>93.29</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>3.16</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>5.1129</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>002593</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>富国美丽中国混合</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>76.37</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>83.52</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>4.49</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>3.4290</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>100026</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>富国天合稳健混合</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>61.68</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>82.56</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>4.97</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>3.0655</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>519035</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>富国天博创新混合</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>28.51</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>93.44</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>4.01</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>1.1433</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>004235</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>中欧价值智选回报混合C</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>33.95</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>93.29</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>3.16</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>1.0728</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>001887</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>中欧价值智选回报混合E</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>24.29</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>93.29</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>3.16</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.7676</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>000513</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>富国高端制造行业股票</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>15.93</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>92.15</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>4.29</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.6834</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>007016</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>富国睿泽回报混合</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>7.26</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>74.76</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>4.36</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.3165</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>008138</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>富国龙头优势混合</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>6.70</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>93.14</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>3.98</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.2667</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>005535</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>泰信竞争优选灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>4.94</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>91.32</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>4.58</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.2263</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>000973</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>新华增盈回报债券</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>23.59</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>22.41</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>0.87</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.2052</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>290006</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>泰信蓝筹精选混合</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>3.04</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>93.60</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>5.58</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.1696</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>004848</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>中欧睿泓定期开放灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>5.70</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>60.20</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>2.48</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.1414</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>004814</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>中欧红利优享灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>3.12</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>84.12</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>3.22</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.1005</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>004815</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>中欧红利优享灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>1.61</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>84.12</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>3.22</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.0518</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>9</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/数据整理/stocks/A股/深证主板/002643-万润股份.xlsx
+++ b/数据整理/stocks/A股/深证主板/002643-万润股份.xlsx
@@ -10,6 +10,7 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="5" state="visible" r:id="rId5"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -4027,4 +4028,104 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>15</v>
+      </c>
+      <c r="D2" t="n">
+        <v>16.75</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>18</v>
+      </c>
+      <c r="D3" t="n">
+        <v>7.58</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>27</v>
+      </c>
+      <c r="D4" t="n">
+        <v>12.13</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2020-Q4</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>29</v>
+      </c>
+      <c r="D5" t="n">
+        <v>8.66</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/数据整理/stocks/A股/深证主板/002643-万润股份.xlsx
+++ b/数据整理/stocks/A股/深证主板/002643-万润股份.xlsx
@@ -10,7 +10,8 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="6" state="visible" r:id="rId6"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -4036,7 +4037,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D5"/>
+  <dimension ref="A1:H43"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -4047,17 +4048,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
-          <t>持有市值</t>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -4067,14 +4088,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>15</v>
-      </c>
-      <c r="D2" t="n">
-        <v>16.75</v>
+          <t>166019</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>中欧价值智选回报混合A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>228.62</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>93.37</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>2.96</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>6.7672</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="3">
@@ -4083,14 +4126,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>18</v>
-      </c>
-      <c r="D3" t="n">
-        <v>7.58</v>
+          <t>100026</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>富国天合稳健混合</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>67.30</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>83.56</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>5.78</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>3.8899</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="4">
@@ -4099,14 +4164,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>27</v>
-      </c>
-      <c r="D4" t="n">
-        <v>12.13</v>
+          <t>013220</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>中欧新兴价值一年持有混合A</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>53.09</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>94.19</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>4.05</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>2.1501</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="5">
@@ -4115,13 +4202,1595 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
+          <t>004235</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>中欧价值智选回报混合C</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>57.07</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>93.37</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>2.96</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>1.6893</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>010723</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>中欧价值成长混合A</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>37.31</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>83.84</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>4.32</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>1.6118</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>519035</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>富国天博创新混合</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>31.34</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>93.36</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>4.58</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>1.4354</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>005760</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>富国周期优势混合</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>44.87</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>82.88</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>2.64</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>1.1846</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>010678</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>中欧均衡成长混合A</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>23.83</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>88.90</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>4.58</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>1.0914</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>010947</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>中欧嘉选混合A</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>22.72</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>88.82</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>4.76</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>1.0815</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>010699</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>东方红创新趋势混合</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>35.53</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>76.40</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>3.01</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>1.0695</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>166009</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>中欧新动力混合(LOF) -A</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>27.55</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>71.14</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>3.67</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>1.0111</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>001887</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>中欧价值智选回报混合E</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>31.25</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>93.37</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>2.96</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.9250</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>010549</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>富国均衡策略混合</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>33.29</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>87.52</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>2.52</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.8389</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>013221</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>中欧新兴价值一年持有混合C</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>20.39</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>94.19</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>4.05</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.8258</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>000513</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>富国高端制造行业股票</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>15.61</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>93.57</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>4.85</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.7571</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>009210</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>中欧嘉和三年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>13.58</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>86.74</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>4.20</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.5704</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>007016</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>富国睿泽回报混合</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>8.34</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>75.72</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>5.94</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.4954</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>005535</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>泰信竞争优选灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>9.39</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>92.54</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>3.71</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.3484</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>008138</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>富国龙头优势混合</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>6.70</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>93.60</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>4.89</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.3276</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>005421</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>中欧嘉泽灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>7.78</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>91.30</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>4.13</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.3213</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>290006</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>泰信蓝筹精选混合</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>7.95</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>91.24</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>3.84</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.3053</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>011708</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>中欧嘉益一年持有期混合型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>8.04</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>91.05</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>3.59</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>0.2886</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>004814</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>中欧红利优享灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>6.08</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>91.95</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>3.99</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>0.2426</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>004236</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>中欧新动力混合(LOF) -C</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>6.41</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>71.14</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>3.67</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>0.2352</t>
+        </is>
+      </c>
+      <c r="H25" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>004815</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>中欧红利优享灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>3.73</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>91.95</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>3.99</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>0.1488</t>
+        </is>
+      </c>
+      <c r="H26" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>002593</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>富国美丽中国混合</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>2.25</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>85.78</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>6.00</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>0.1350</t>
+        </is>
+      </c>
+      <c r="H27" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>003495</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>鹏华弘尚灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>12.00</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>21.16</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>1.06</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>0.1272</t>
+        </is>
+      </c>
+      <c r="H28" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="2" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>009211</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>中欧嘉和三年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>2.91</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>86.74</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>4.20</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>0.1222</t>
+        </is>
+      </c>
+      <c r="H29" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="2" t="n">
+        <v>28</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>010724</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>中欧价值成长混合C</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>2.43</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>83.84</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>4.32</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>0.1050</t>
+        </is>
+      </c>
+      <c r="H30" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="2" t="n">
+        <v>29</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>011709</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>中欧嘉益一年持有期混合型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>2.85</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>91.05</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>3.59</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>0.1023</t>
+        </is>
+      </c>
+      <c r="H31" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>006973</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>太平睿盈混合A</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>8.09</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>29.12</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>1.25</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>0.1011</t>
+        </is>
+      </c>
+      <c r="H32" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="2" t="n">
+        <v>31</v>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>010375</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>国金鑫悦经济新动能混合A</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>1.50</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>93.98</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>5.03</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>0.0754</t>
+        </is>
+      </c>
+      <c r="H33" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="2" t="n">
+        <v>32</v>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>001827</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>富国研究优选沪港深灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>2.87</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>83.06</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>2.48</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>0.0712</t>
+        </is>
+      </c>
+      <c r="H34" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="2" t="n">
+        <v>33</v>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>010948</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>中欧嘉选混合C</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>1.25</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>88.82</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>4.76</t>
+        </is>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>0.0595</t>
+        </is>
+      </c>
+      <c r="H35" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="2" t="n">
+        <v>34</v>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>010679</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>中欧均衡成长混合C</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>1.18</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>88.90</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>4.58</t>
+        </is>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>0.0540</t>
+        </is>
+      </c>
+      <c r="H36" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="2" t="n">
+        <v>35</v>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>007669</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>太平睿盈混合C</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>3.28</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>29.12</t>
+        </is>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>1.25</t>
+        </is>
+      </c>
+      <c r="G37" t="inlineStr">
+        <is>
+          <t>0.0410</t>
+        </is>
+      </c>
+      <c r="H37" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="2" t="n">
+        <v>36</v>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>003025</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>新华红利回报混合</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>5.56</t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>22.79</t>
+        </is>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>0.68</t>
+        </is>
+      </c>
+      <c r="G38" t="inlineStr">
+        <is>
+          <t>0.0378</t>
+        </is>
+      </c>
+      <c r="H38" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="2" t="n">
+        <v>37</v>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>003496</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>鹏华弘尚灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>2.98</t>
+        </is>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>21.16</t>
+        </is>
+      </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>1.06</t>
+        </is>
+      </c>
+      <c r="G39" t="inlineStr">
+        <is>
+          <t>0.0316</t>
+        </is>
+      </c>
+      <c r="H39" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="2" t="n">
+        <v>38</v>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>010376</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>国金鑫悦经济新动能混合C</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>0.31</t>
+        </is>
+      </c>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>93.98</t>
+        </is>
+      </c>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>5.03</t>
+        </is>
+      </c>
+      <c r="G40" t="inlineStr">
+        <is>
+          <t>0.0156</t>
+        </is>
+      </c>
+      <c r="H40" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="2" t="n">
+        <v>39</v>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>080007</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>长盛同鑫行业配置混合</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>0.31</t>
+        </is>
+      </c>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>91.27</t>
+        </is>
+      </c>
+      <c r="F41" t="inlineStr">
+        <is>
+          <t>3.43</t>
+        </is>
+      </c>
+      <c r="G41" t="inlineStr">
+        <is>
+          <t>0.0106</t>
+        </is>
+      </c>
+      <c r="H41" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="2" t="n">
+        <v>40</v>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>161727</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>招商增荣灵活配置混合(LOF)</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>0.50</t>
+        </is>
+      </c>
+      <c r="E42" t="inlineStr">
+        <is>
+          <t>57.55</t>
+        </is>
+      </c>
+      <c r="F42" t="inlineStr">
+        <is>
+          <t>1.80</t>
+        </is>
+      </c>
+      <c r="G42" t="inlineStr">
+        <is>
+          <t>0.0090</t>
+        </is>
+      </c>
+      <c r="H42" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="2" t="n">
+        <v>41</v>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>001883</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>中欧新动力混合(LOF) -E</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>0.17</t>
+        </is>
+      </c>
+      <c r="E43" t="inlineStr">
+        <is>
+          <t>71.14</t>
+        </is>
+      </c>
+      <c r="F43" t="inlineStr">
+        <is>
+          <t>3.67</t>
+        </is>
+      </c>
+      <c r="G43" t="inlineStr">
+        <is>
+          <t>0.0062</t>
+        </is>
+      </c>
+      <c r="H43" t="n">
+        <v>6</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>42</v>
+      </c>
+      <c r="D2" t="n">
+        <v>30.72</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>15</v>
+      </c>
+      <c r="D3" t="n">
+        <v>16.75</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>18</v>
+      </c>
+      <c r="D4" t="n">
+        <v>7.58</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>27</v>
+      </c>
+      <c r="D5" t="n">
+        <v>12.13</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C5" t="n">
+      <c r="C6" t="n">
         <v>29</v>
       </c>
-      <c r="D5" t="n">
+      <c r="D6" t="n">
         <v>8.66</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/深证主板/002643-万润股份.xlsx
+++ b/数据整理/stocks/A股/深证主板/002643-万润股份.xlsx
@@ -11,7 +11,8 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="7" state="visible" r:id="rId7"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -5689,7 +5690,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D6"/>
+  <dimension ref="A1:H41"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -5700,17 +5701,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量(只)</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
           <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -5720,14 +5741,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>42</v>
-      </c>
-      <c r="D2" t="n">
-        <v>30.72</v>
+          <t>166019</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>中欧价值智选回报混合A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>156.17</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>94.14</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>3.32</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>5.1848</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="3">
@@ -5736,14 +5779,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>15</v>
-      </c>
-      <c r="D3" t="n">
-        <v>16.75</v>
+          <t>002593</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>富国美丽中国混合</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>55.22</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>87.05</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>6.73</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>3.7163</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="4">
@@ -5752,14 +5817,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>18</v>
-      </c>
-      <c r="D4" t="n">
-        <v>7.58</v>
+          <t>100026</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>富国天合稳健混合</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>53.82</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>80.56</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>5.53</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>2.9762</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="5">
@@ -5768,14 +5855,36 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
-        </is>
-      </c>
-      <c r="C5" t="n">
-        <v>27</v>
-      </c>
-      <c r="D5" t="n">
-        <v>12.13</v>
+          <t>013220</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>中欧新兴价值一年持有混合A</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>63.33</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>94.47</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>3.01</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>1.9062</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>9</v>
       </c>
     </row>
     <row r="6">
@@ -5784,13 +5893,1497 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
+          <t>010723</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>中欧价值成长混合A</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>28.80</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>91.96</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>4.28</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>1.2326</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>004235</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>中欧价值智选回报混合C</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>36.40</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>94.14</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>3.32</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>1.2085</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>519035</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>富国天博创新混合</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>25.63</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>93.05</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>4.14</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>1.0611</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>166009</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>中欧新动力混合(LOF) -A</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>24.29</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>90.17</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>4.10</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.9959</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>001883</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>中欧新动力混合(LOF) -E</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>24.29</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>90.17</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>4.10</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.9959</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>010678</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>中欧均衡成长混合A</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>18.02</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>90.22</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>4.64</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.8361</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>010947</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>中欧嘉选混合A</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>17.36</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>87.64</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>4.77</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.8281</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>009210</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>中欧嘉和三年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>18.38</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>85.26</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>3.87</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.7113</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>001887</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>中欧价值智选回报混合E</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>20.77</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>94.14</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>3.32</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.6896</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>007016</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>富国睿泽回报混合</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>6.81</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>73.71</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>8.60</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.5857</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>013221</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>中欧新兴价值一年持有混合C</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>16.75</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>94.47</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>3.01</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.5042</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>000513</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>富国高端制造行业股票</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>9.25</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>93.54</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>4.69</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.4338</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>005421</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>中欧嘉泽灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>8.87</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>86.45</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>3.74</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.3317</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>011708</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>中欧嘉益一年持有期混合型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>8.11</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>80.96</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>3.76</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.3049</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>008138</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>富国龙头优势混合</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>5.02</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>93.93</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>5.09</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.2555</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>004236</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>中欧新动力混合(LOF) -C</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>5.67</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>90.17</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>4.10</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.2325</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>001980</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>中欧量化驱动混合</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>15.11</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>83.97</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>1.28</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.1934</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>006973</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>太平睿盈混合A</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>8.69</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>29.33</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>1.60</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>0.1390</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>011142</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>创金合信新材料新能源股票A</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>5.73</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>84.01</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>2.39</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>0.1369</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>009211</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>中欧嘉和三年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>2.42</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>85.26</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>3.87</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>0.0937</t>
+        </is>
+      </c>
+      <c r="H25" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>011709</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>中欧嘉益一年持有期混合型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>2.43</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>80.96</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>3.76</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>0.0914</t>
+        </is>
+      </c>
+      <c r="H26" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>010375</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>国金鑫悦经济新动能混合A</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>1.29</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>94.93</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>6.99</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>0.0902</t>
+        </is>
+      </c>
+      <c r="H27" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>010724</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>中欧价值成长混合C</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>1.88</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>91.96</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>4.28</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>0.0805</t>
+        </is>
+      </c>
+      <c r="H28" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="2" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>001827</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>富国研究优选沪港深灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>2.87</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>76.07</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>2.44</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>0.0700</t>
+        </is>
+      </c>
+      <c r="H29" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="2" t="n">
+        <v>28</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>002134</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>广发鑫裕灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>4.65</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>32.41</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>1.25</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>0.0581</t>
+        </is>
+      </c>
+      <c r="H30" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="2" t="n">
+        <v>29</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>010948</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>中欧嘉选混合C</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>0.94</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>87.64</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>4.77</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>0.0448</t>
+        </is>
+      </c>
+      <c r="H31" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>011143</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>创金合信新材料新能源股票C</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>1.87</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>84.01</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>2.39</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>0.0447</t>
+        </is>
+      </c>
+      <c r="H32" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="2" t="n">
+        <v>31</v>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>010679</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>中欧均衡成长混合C</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>0.90</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>90.22</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>4.64</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>0.0418</t>
+        </is>
+      </c>
+      <c r="H33" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="2" t="n">
+        <v>32</v>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>014663</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>富国创新发展两年定期开放混合A</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>2.62</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>37.11</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>1.48</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>0.0388</t>
+        </is>
+      </c>
+      <c r="H34" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="2" t="n">
+        <v>33</v>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>007669</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>太平睿盈混合C</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>2.21</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>29.33</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>1.60</t>
+        </is>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>0.0354</t>
+        </is>
+      </c>
+      <c r="H35" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="2" t="n">
+        <v>34</v>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>010376</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>国金鑫悦经济新动能混合C</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>0.28</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>94.93</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>6.99</t>
+        </is>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>0.0196</t>
+        </is>
+      </c>
+      <c r="H36" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="2" t="n">
+        <v>35</v>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>009955</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>广发鑫裕灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>0.84</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>32.41</t>
+        </is>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>1.25</t>
+        </is>
+      </c>
+      <c r="G37" t="inlineStr">
+        <is>
+          <t>0.0105</t>
+        </is>
+      </c>
+      <c r="H37" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="2" t="n">
+        <v>36</v>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>080007</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>长盛同鑫行业配置混合</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>0.27</t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>87.31</t>
+        </is>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>3.03</t>
+        </is>
+      </c>
+      <c r="G38" t="inlineStr">
+        <is>
+          <t>0.0082</t>
+        </is>
+      </c>
+      <c r="H38" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="2" t="n">
+        <v>37</v>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>010307</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>西藏东财信息产业精选混合A</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>0.29</t>
+        </is>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>77.93</t>
+        </is>
+      </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>2.68</t>
+        </is>
+      </c>
+      <c r="G39" t="inlineStr">
+        <is>
+          <t>0.0078</t>
+        </is>
+      </c>
+      <c r="H39" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="2" t="n">
+        <v>38</v>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>014664</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>富国创新发展两年定期开放混合C</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>0.32</t>
+        </is>
+      </c>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>37.11</t>
+        </is>
+      </c>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>1.48</t>
+        </is>
+      </c>
+      <c r="G40" t="inlineStr">
+        <is>
+          <t>0.0047</t>
+        </is>
+      </c>
+      <c r="H40" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="2" t="n">
+        <v>39</v>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>010308</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>西藏东财信息产业精选混合C</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>0.09</t>
+        </is>
+      </c>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>77.93</t>
+        </is>
+      </c>
+      <c r="F41" t="inlineStr">
+        <is>
+          <t>2.68</t>
+        </is>
+      </c>
+      <c r="G41" t="inlineStr">
+        <is>
+          <t>0.0024</t>
+        </is>
+      </c>
+      <c r="H41" t="n">
+        <v>8</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2022-Q1</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>40</v>
+      </c>
+      <c r="D2" t="n">
+        <v>26.2</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>42</v>
+      </c>
+      <c r="D3" t="n">
+        <v>30.72</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>15</v>
+      </c>
+      <c r="D4" t="n">
+        <v>16.75</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>18</v>
+      </c>
+      <c r="D5" t="n">
+        <v>7.58</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
+        <v>27</v>
+      </c>
+      <c r="D6" t="n">
+        <v>12.13</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C6" t="n">
+      <c r="C7" t="n">
         <v>29</v>
       </c>
-      <c r="D6" t="n">
+      <c r="D7" t="n">
         <v>8.66</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/深证主板/002643-万润股份.xlsx
+++ b/数据整理/stocks/A股/深证主板/002643-万润股份.xlsx
@@ -12,7 +12,8 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="8" state="visible" r:id="rId8"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -7266,7 +7267,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D7"/>
+  <dimension ref="A1:H45"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -7277,17 +7278,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量(只)</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
           <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -7297,14 +7318,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>40</v>
-      </c>
-      <c r="D2" t="n">
-        <v>26.2</v>
+          <t>166019</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>中欧价值智选回报混合A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>134.98</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>94.78</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>3.44</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>4.6433</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="3">
@@ -7313,14 +7356,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>42</v>
-      </c>
-      <c r="D3" t="n">
-        <v>30.72</v>
+          <t>002593</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>富国美丽中国混合</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>46.58</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>82.61</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>8.82</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>4.1084</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="4">
@@ -7329,14 +7394,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>15</v>
-      </c>
-      <c r="D4" t="n">
-        <v>16.75</v>
+          <t>100026</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>富国天合稳健混合</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>53.20</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>78.02</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>7.14</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>3.7985</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="5">
@@ -7345,14 +7432,36 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
-        </is>
-      </c>
-      <c r="C5" t="n">
-        <v>18</v>
-      </c>
-      <c r="D5" t="n">
-        <v>7.58</v>
+          <t>010723</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>中欧价值成长混合A</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>30.32</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>90.33</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>5.05</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>1.5312</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="6">
@@ -7361,14 +7470,36 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
-        </is>
-      </c>
-      <c r="C6" t="n">
-        <v>27</v>
-      </c>
-      <c r="D6" t="n">
-        <v>12.13</v>
+          <t>013220</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>中欧新兴价值一年持有混合A</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>41.39</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>94.53</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>3.12</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>1.2914</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="7">
@@ -7377,13 +7508,1627 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
+          <t>166009</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>中欧新动力混合(LOF) -A</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>25.77</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>85.60</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>4.82</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>1.2421</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>519035</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>富国天博创新混合</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>21.45</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>92.66</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>5.70</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>1.2226</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>004235</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>中欧价值智选回报混合C</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>33.31</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>94.78</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>3.44</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>1.1459</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>010678</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>中欧均衡成长混合A</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>18.60</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>90.05</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>5.54</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>1.0304</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>010947</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>中欧嘉选混合A</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>17.97</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>87.20</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>5.68</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>1.0207</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>009210</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>中欧嘉和三年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>19.62</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>87.56</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>4.55</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.8927</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>005760</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>富国周期优势混合</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>27.58</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>89.55</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>2.92</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.8053</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>010549</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>富国均衡策略混合</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>26.86</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>89.51</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>2.63</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.7064</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>004814</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>中欧红利优享灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>17.05</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>91.03</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>3.75</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.6394</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>013221</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>中欧新兴价值一年持有混合C</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>18.63</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>94.53</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>3.12</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.5813</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>001887</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>中欧价值智选回报混合E</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>16.83</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>94.78</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>3.44</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.5790</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>007016</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>富国睿泽回报混合</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>6.11</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>74.91</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>8.21</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.5016</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>000513</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>富国高端制造行业股票</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>8.78</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>92.75</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>5.69</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.4996</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>005421</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>中欧嘉泽灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>7.53</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>93.31</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>5.50</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.4142</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>008138</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>富国龙头优势混合</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>5.49</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>92.60</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>5.37</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.2948</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>004236</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>中欧新动力混合(LOF) -C</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>5.62</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>85.60</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>4.82</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.2709</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>011708</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>中欧嘉益一年持有期混合型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>5.66</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>92.19</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>4.75</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>0.2688</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>004815</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>中欧红利优享灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>5.46</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>91.03</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>3.75</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>0.2048</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>011566</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>富国美丽中国混合C</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>2.00</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>82.61</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>8.82</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>0.1764</t>
+        </is>
+      </c>
+      <c r="H25" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>003495</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>鹏华弘尚灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>4.57</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>34.61</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>3.29</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>0.1504</t>
+        </is>
+      </c>
+      <c r="H26" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>009211</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>中欧嘉和三年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>2.59</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>87.56</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>4.55</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>0.1178</t>
+        </is>
+      </c>
+      <c r="H27" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>011709</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>中欧嘉益一年持有期混合型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>2.39</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>92.19</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>4.75</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>0.1135</t>
+        </is>
+      </c>
+      <c r="H28" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="2" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>010375</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>国金鑫悦经济新动能混合A</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>1.41</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>93.01</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>7.40</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>0.1043</t>
+        </is>
+      </c>
+      <c r="H29" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="2" t="n">
+        <v>28</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>010724</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>中欧价值成长混合C</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>1.94</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>90.33</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>5.05</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>0.0980</t>
+        </is>
+      </c>
+      <c r="H30" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="2" t="n">
+        <v>29</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>006973</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>太平睿盈混合A</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>5.50</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>29.67</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>1.06</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>0.0583</t>
+        </is>
+      </c>
+      <c r="H31" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>002134</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>广发鑫裕灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>3.74</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>30.37</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>1.48</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>0.0554</t>
+        </is>
+      </c>
+      <c r="H32" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="2" t="n">
+        <v>31</v>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>010948</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>中欧嘉选混合C</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>0.97</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>87.20</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>5.68</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>0.0551</t>
+        </is>
+      </c>
+      <c r="H33" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="2" t="n">
+        <v>32</v>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>010679</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>中欧均衡成长混合C</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>0.93</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>90.05</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>5.54</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>0.0515</t>
+        </is>
+      </c>
+      <c r="H34" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="2" t="n">
+        <v>33</v>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>010376</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>国金鑫悦经济新动能混合C</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>0.38</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>93.01</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>7.40</t>
+        </is>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>0.0281</t>
+        </is>
+      </c>
+      <c r="H35" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="2" t="n">
+        <v>34</v>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>003496</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>鹏华弘尚灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>0.65</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>34.61</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>3.29</t>
+        </is>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>0.0214</t>
+        </is>
+      </c>
+      <c r="H36" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="2" t="n">
+        <v>35</v>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>004194</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>招商中证1000指数增强A</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>1.95</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>93.18</t>
+        </is>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>1.09</t>
+        </is>
+      </c>
+      <c r="G37" t="inlineStr">
+        <is>
+          <t>0.0213</t>
+        </is>
+      </c>
+      <c r="H37" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="2" t="n">
+        <v>36</v>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>009955</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>广发鑫裕灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>1.22</t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>30.37</t>
+        </is>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>1.48</t>
+        </is>
+      </c>
+      <c r="G38" t="inlineStr">
+        <is>
+          <t>0.0181</t>
+        </is>
+      </c>
+      <c r="H38" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="2" t="n">
+        <v>37</v>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>001883</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>中欧新动力混合(LOF) -E</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>0.36</t>
+        </is>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>85.60</t>
+        </is>
+      </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>4.82</t>
+        </is>
+      </c>
+      <c r="G39" t="inlineStr">
+        <is>
+          <t>0.0174</t>
+        </is>
+      </c>
+      <c r="H39" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="2" t="n">
+        <v>38</v>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>011565</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>富国周期优势混合C</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>0.49</t>
+        </is>
+      </c>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>89.55</t>
+        </is>
+      </c>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>2.92</t>
+        </is>
+      </c>
+      <c r="G40" t="inlineStr">
+        <is>
+          <t>0.0143</t>
+        </is>
+      </c>
+      <c r="H40" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="2" t="n">
+        <v>39</v>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>007669</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>太平睿盈混合C</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>1.11</t>
+        </is>
+      </c>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>29.67</t>
+        </is>
+      </c>
+      <c r="F41" t="inlineStr">
+        <is>
+          <t>1.06</t>
+        </is>
+      </c>
+      <c r="G41" t="inlineStr">
+        <is>
+          <t>0.0118</t>
+        </is>
+      </c>
+      <c r="H41" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="2" t="n">
+        <v>40</v>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>003456</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>信达澳银新目标灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>0.52</t>
+        </is>
+      </c>
+      <c r="E42" t="inlineStr">
+        <is>
+          <t>89.08</t>
+        </is>
+      </c>
+      <c r="F42" t="inlineStr">
+        <is>
+          <t>2.06</t>
+        </is>
+      </c>
+      <c r="G42" t="inlineStr">
+        <is>
+          <t>0.0107</t>
+        </is>
+      </c>
+      <c r="H42" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="2" t="n">
+        <v>41</v>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>004195</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>招商中证1000指数增强C</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>0.74</t>
+        </is>
+      </c>
+      <c r="E43" t="inlineStr">
+        <is>
+          <t>93.18</t>
+        </is>
+      </c>
+      <c r="F43" t="inlineStr">
+        <is>
+          <t>1.09</t>
+        </is>
+      </c>
+      <c r="G43" t="inlineStr">
+        <is>
+          <t>0.0081</t>
+        </is>
+      </c>
+      <c r="H43" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="2" t="n">
+        <v>42</v>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>010404</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>博道盛利6个月持有期混合</t>
+        </is>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>1.27</t>
+        </is>
+      </c>
+      <c r="E44" t="inlineStr">
+        <is>
+          <t>40.72</t>
+        </is>
+      </c>
+      <c r="F44" t="inlineStr">
+        <is>
+          <t>0.41</t>
+        </is>
+      </c>
+      <c r="G44" t="inlineStr">
+        <is>
+          <t>0.0052</t>
+        </is>
+      </c>
+      <c r="H44" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="2" t="n">
+        <v>43</v>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>014930</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>富国高端制造行业股票C</t>
+        </is>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>0.01</t>
+        </is>
+      </c>
+      <c r="E45" t="inlineStr">
+        <is>
+          <t>92.75</t>
+        </is>
+      </c>
+      <c r="F45" t="inlineStr">
+        <is>
+          <t>5.69</t>
+        </is>
+      </c>
+      <c r="G45" t="inlineStr">
+        <is>
+          <t>0.0006</t>
+        </is>
+      </c>
+      <c r="H45" t="n">
+        <v>2</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D8"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2022-Q2</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>44</v>
+      </c>
+      <c r="D2" t="n">
+        <v>28.83</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2022-Q1</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>40</v>
+      </c>
+      <c r="D3" t="n">
+        <v>26.2</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>42</v>
+      </c>
+      <c r="D4" t="n">
+        <v>30.72</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>15</v>
+      </c>
+      <c r="D5" t="n">
+        <v>16.75</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
+        <v>18</v>
+      </c>
+      <c r="D6" t="n">
+        <v>7.58</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C7" t="n">
+        <v>27</v>
+      </c>
+      <c r="D7" t="n">
+        <v>12.13</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C7" t="n">
+      <c r="C8" t="n">
         <v>29</v>
       </c>
-      <c r="D7" t="n">
+      <c r="D8" t="n">
         <v>8.66</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/深证主板/002643-万润股份.xlsx
+++ b/数据整理/stocks/A股/深证主板/002643-万润股份.xlsx
@@ -7,13 +7,14 @@
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="7" state="visible" r:id="rId7"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="9" state="visible" r:id="rId9"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -457,7 +458,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D8"/>
+  <dimension ref="A1:D9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -488,14 +489,14 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q2</t>
+          <t>2022-Q3</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="D2" t="n">
-        <v>28.83</v>
+        <v>12.21</v>
       </c>
     </row>
     <row r="3">
@@ -504,14 +505,14 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
+          <t>2022-Q2</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="D3" t="n">
-        <v>26.2</v>
+        <v>28.83</v>
       </c>
     </row>
     <row r="4">
@@ -520,14 +521,14 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
+          <t>2022-Q1</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="D4" t="n">
-        <v>30.72</v>
+        <v>26.2</v>
       </c>
     </row>
     <row r="5">
@@ -536,14 +537,14 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
+          <t>2021-Q4</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>15</v>
+        <v>42</v>
       </c>
       <c r="D5" t="n">
-        <v>16.75</v>
+        <v>30.72</v>
       </c>
     </row>
     <row r="6">
@@ -552,14 +553,14 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
+          <t>2021-Q3</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="D6" t="n">
-        <v>7.58</v>
+        <v>16.75</v>
       </c>
     </row>
     <row r="7">
@@ -568,14 +569,14 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
+          <t>2021-Q2</t>
         </is>
       </c>
       <c r="C7" t="n">
-        <v>27</v>
+        <v>18</v>
       </c>
       <c r="D7" t="n">
-        <v>12.13</v>
+        <v>7.58</v>
       </c>
     </row>
     <row r="8">
@@ -584,13 +585,29 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C8" t="n">
+        <v>27</v>
+      </c>
+      <c r="D8" t="n">
+        <v>12.13</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C8" t="n">
+      <c r="C9" t="n">
         <v>29</v>
       </c>
-      <c r="D8" t="n">
+      <c r="D9" t="n">
         <v>8.66</v>
       </c>
     </row>
@@ -600,6 +617,1886 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H49"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>100026</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>富国天合稳健混合</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>41.01</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>78.83</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>6.15</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>2.5221</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>002593</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>富国美丽中国混合A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>28.84</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>82.00</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>6.25</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>1.8025</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>010723</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>中欧价值成长混合A</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>22.79</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>86.71</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>4.30</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.9800</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>519035</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>富国天博创新混合</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>18.16</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>91.30</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>4.46</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.8099</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>166009</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>中欧新动力混合（LOF）A</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>16.12</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>84.76</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>4.08</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.6577</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>010678</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>中欧均衡成长混合A</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>14.02</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>87.25</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>4.60</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.6449</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>010947</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>中欧嘉选混合A</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>13.56</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>85.30</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>4.69</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.6360</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>009210</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>中欧嘉和三年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>14.42</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>92.18</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>3.65</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.5263</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>001556</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>天弘中证500指数增强A</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>25.09</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>94.15</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>1.44</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.3613</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>000513</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>富国高端制造行业股票A</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>7.01</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>91.41</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>4.74</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.3323</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>005421</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>中欧嘉泽灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>6.99</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>83.96</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>3.89</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.2719</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>010615</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>国金自主创新混合A</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>3.42</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>82.69</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>6.40</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.2189</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>010616</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>国金自主创新混合C</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>3.42</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>82.69</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>6.40</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.2189</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>013993</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>中欧光熠一年持有期混合型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>6.06</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>84.26</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>3.40</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.2060</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>008138</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>富国龙头优势混合</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>4.41</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>92.58</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>4.59</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.2024</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>001557</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>天弘中证500指数增强C</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>12.94</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>94.15</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>1.44</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.1863</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>011708</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>中欧嘉益一年混合A</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>4.44</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>93.35</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>4.13</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.1834</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>007016</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>富国睿泽回报混合</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>5.08</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>67.94</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>3.61</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.1834</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>004236</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>中欧新动力混合（LOF）C</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>4.31</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>84.76</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>4.08</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.1758</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>000214</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>广发成长优选混合</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>6.91</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>38.01</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>1.59</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.1099</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>013994</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>中欧光熠一年持有期混合型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>2.45</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>84.26</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>3.40</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.0833</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>014818</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>国金新兴价值混合A</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>1.25</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>81.81</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>6.51</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>0.0814</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>009211</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>中欧嘉和三年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>2.19</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>92.18</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>3.65</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>0.0799</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>011709</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>中欧嘉益一年混合C</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>1.87</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>93.35</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>4.13</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>0.0772</t>
+        </is>
+      </c>
+      <c r="H25" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>010724</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>中欧价值成长混合C</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>1.57</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>86.71</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>4.30</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>0.0675</t>
+        </is>
+      </c>
+      <c r="H26" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>010375</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>国金鑫悦经济新动能混合A</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>0.94</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>91.64</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>6.69</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>0.0629</t>
+        </is>
+      </c>
+      <c r="H27" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>014202</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>天弘中证1000指数增强C</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>3.69</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>94.06</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>1.61</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>0.0594</t>
+        </is>
+      </c>
+      <c r="H28" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="2" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>014201</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>天弘中证1000指数增强A</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>3.68</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>94.06</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>1.61</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>0.0592</t>
+        </is>
+      </c>
+      <c r="H29" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="2" t="n">
+        <v>28</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>009955</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>广发鑫裕灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>6.57</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>30.01</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>0.87</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>0.0572</t>
+        </is>
+      </c>
+      <c r="H30" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="2" t="n">
+        <v>29</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>002134</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>广发鑫裕灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>5.33</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>30.01</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>0.87</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>0.0464</t>
+        </is>
+      </c>
+      <c r="H31" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>011566</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>富国美丽中国混合C</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>0.71</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>82.00</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>6.25</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>0.0444</t>
+        </is>
+      </c>
+      <c r="H32" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="2" t="n">
+        <v>31</v>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>010948</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>中欧嘉选混合C</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>0.78</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>85.30</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>4.69</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>0.0366</t>
+        </is>
+      </c>
+      <c r="H33" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="2" t="n">
+        <v>32</v>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>014819</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>国金新兴价值混合C</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>0.54</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>81.81</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>6.51</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>0.0352</t>
+        </is>
+      </c>
+      <c r="H34" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="2" t="n">
+        <v>33</v>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>010679</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>中欧均衡成长混合C</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>0.74</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>87.25</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>4.60</t>
+        </is>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>0.0340</t>
+        </is>
+      </c>
+      <c r="H35" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="2" t="n">
+        <v>34</v>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>002210</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>创金合信量化多因子股票A</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>2.39</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>91.71</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>1.30</t>
+        </is>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>0.0311</t>
+        </is>
+      </c>
+      <c r="H36" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="2" t="n">
+        <v>35</v>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>006973</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>太平睿盈混合A</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>3.84</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>28.79</t>
+        </is>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>0.78</t>
+        </is>
+      </c>
+      <c r="G37" t="inlineStr">
+        <is>
+          <t>0.0300</t>
+        </is>
+      </c>
+      <c r="H37" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="2" t="n">
+        <v>36</v>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>010376</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>国金鑫悦经济新动能混合C</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>0.37</t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>91.64</t>
+        </is>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>6.69</t>
+        </is>
+      </c>
+      <c r="G38" t="inlineStr">
+        <is>
+          <t>0.0248</t>
+        </is>
+      </c>
+      <c r="H38" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="2" t="n">
+        <v>37</v>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>012005</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>信澳恒盛混合A</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>1.35</t>
+        </is>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>30.06</t>
+        </is>
+      </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>0.97</t>
+        </is>
+      </c>
+      <c r="G39" t="inlineStr">
+        <is>
+          <t>0.0131</t>
+        </is>
+      </c>
+      <c r="H39" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="2" t="n">
+        <v>38</v>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>001883</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>中欧新动力混合（LOF）E</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>0.31</t>
+        </is>
+      </c>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>84.76</t>
+        </is>
+      </c>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>4.08</t>
+        </is>
+      </c>
+      <c r="G40" t="inlineStr">
+        <is>
+          <t>0.0126</t>
+        </is>
+      </c>
+      <c r="H40" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="2" t="n">
+        <v>39</v>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>003865</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>创金合信量化多因子股票C</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>0.75</t>
+        </is>
+      </c>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>91.71</t>
+        </is>
+      </c>
+      <c r="F41" t="inlineStr">
+        <is>
+          <t>1.30</t>
+        </is>
+      </c>
+      <c r="G41" t="inlineStr">
+        <is>
+          <t>0.0098</t>
+        </is>
+      </c>
+      <c r="H41" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="2" t="n">
+        <v>40</v>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>003647</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>创金合信中证1000指数增强C</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>0.68</t>
+        </is>
+      </c>
+      <c r="E42" t="inlineStr">
+        <is>
+          <t>90.54</t>
+        </is>
+      </c>
+      <c r="F42" t="inlineStr">
+        <is>
+          <t>1.20</t>
+        </is>
+      </c>
+      <c r="G42" t="inlineStr">
+        <is>
+          <t>0.0082</t>
+        </is>
+      </c>
+      <c r="H42" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="2" t="n">
+        <v>41</v>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>007669</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>太平睿盈混合C</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>1.04</t>
+        </is>
+      </c>
+      <c r="E43" t="inlineStr">
+        <is>
+          <t>28.79</t>
+        </is>
+      </c>
+      <c r="F43" t="inlineStr">
+        <is>
+          <t>0.78</t>
+        </is>
+      </c>
+      <c r="G43" t="inlineStr">
+        <is>
+          <t>0.0081</t>
+        </is>
+      </c>
+      <c r="H43" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="2" t="n">
+        <v>42</v>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>011731</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>国投瑞银安睿混合A</t>
+        </is>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>1.21</t>
+        </is>
+      </c>
+      <c r="E44" t="inlineStr">
+        <is>
+          <t>26.60</t>
+        </is>
+      </c>
+      <c r="F44" t="inlineStr">
+        <is>
+          <t>0.43</t>
+        </is>
+      </c>
+      <c r="G44" t="inlineStr">
+        <is>
+          <t>0.0052</t>
+        </is>
+      </c>
+      <c r="H44" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="2" t="n">
+        <v>43</v>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>010404</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>博道盛利6个月持有期混合</t>
+        </is>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>1.10</t>
+        </is>
+      </c>
+      <c r="E45" t="inlineStr">
+        <is>
+          <t>41.15</t>
+        </is>
+      </c>
+      <c r="F45" t="inlineStr">
+        <is>
+          <t>0.39</t>
+        </is>
+      </c>
+      <c r="G45" t="inlineStr">
+        <is>
+          <t>0.0043</t>
+        </is>
+      </c>
+      <c r="H45" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="2" t="n">
+        <v>44</v>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>003646</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>创金合信中证1000指数增强A</t>
+        </is>
+      </c>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t>0.35</t>
+        </is>
+      </c>
+      <c r="E46" t="inlineStr">
+        <is>
+          <t>90.54</t>
+        </is>
+      </c>
+      <c r="F46" t="inlineStr">
+        <is>
+          <t>1.20</t>
+        </is>
+      </c>
+      <c r="G46" t="inlineStr">
+        <is>
+          <t>0.0042</t>
+        </is>
+      </c>
+      <c r="H46" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="2" t="n">
+        <v>45</v>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>011732</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>国投瑞银安睿混合C</t>
+        </is>
+      </c>
+      <c r="D47" t="inlineStr">
+        <is>
+          <t>0.83</t>
+        </is>
+      </c>
+      <c r="E47" t="inlineStr">
+        <is>
+          <t>26.60</t>
+        </is>
+      </c>
+      <c r="F47" t="inlineStr">
+        <is>
+          <t>0.43</t>
+        </is>
+      </c>
+      <c r="G47" t="inlineStr">
+        <is>
+          <t>0.0036</t>
+        </is>
+      </c>
+      <c r="H47" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="2" t="n">
+        <v>46</v>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>012006</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>信澳恒盛混合C</t>
+        </is>
+      </c>
+      <c r="D48" t="inlineStr">
+        <is>
+          <t>0.11</t>
+        </is>
+      </c>
+      <c r="E48" t="inlineStr">
+        <is>
+          <t>30.06</t>
+        </is>
+      </c>
+      <c r="F48" t="inlineStr">
+        <is>
+          <t>0.97</t>
+        </is>
+      </c>
+      <c r="G48" t="inlineStr">
+        <is>
+          <t>0.0011</t>
+        </is>
+      </c>
+      <c r="H48" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="2" t="n">
+        <v>47</v>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>014930</t>
+        </is>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>富国高端制造行业股票C</t>
+        </is>
+      </c>
+      <c r="D49" t="inlineStr">
+        <is>
+          <t>0.01</t>
+        </is>
+      </c>
+      <c r="E49" t="inlineStr">
+        <is>
+          <t>91.41</t>
+        </is>
+      </c>
+      <c r="F49" t="inlineStr">
+        <is>
+          <t>4.74</t>
+        </is>
+      </c>
+      <c r="G49" t="inlineStr">
+        <is>
+          <t>0.0005</t>
+        </is>
+      </c>
+      <c r="H49" t="n">
+        <v>6</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -2327,7 +4224,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -3903,7 +5800,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -5555,7 +7452,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -6181,7 +8078,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -6913,7 +8810,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -7981,7 +9878,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>

--- a/数据整理/stocks/A股/深证主板/002643-万润股份.xlsx
+++ b/数据整理/stocks/A股/深证主板/002643-万润股份.xlsx
@@ -7,14 +7,15 @@
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="7" state="visible" r:id="rId7"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="8" state="visible" r:id="rId8"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="9" state="visible" r:id="rId9"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q4" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="9" state="visible" r:id="rId9"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="10" state="visible" r:id="rId10"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -458,7 +459,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D9"/>
+  <dimension ref="A1:D10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -489,14 +490,14 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q3</t>
+          <t>2022-Q4</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>48</v>
+        <v>41</v>
       </c>
       <c r="D2" t="n">
-        <v>12.21</v>
+        <v>10.51</v>
       </c>
     </row>
     <row r="3">
@@ -505,14 +506,14 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2022-Q2</t>
+          <t>2022-Q3</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="D3" t="n">
-        <v>28.83</v>
+        <v>12.21</v>
       </c>
     </row>
     <row r="4">
@@ -521,14 +522,14 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
+          <t>2022-Q2</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="D4" t="n">
-        <v>26.2</v>
+        <v>28.83</v>
       </c>
     </row>
     <row r="5">
@@ -537,14 +538,14 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
+          <t>2022-Q1</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="D5" t="n">
-        <v>30.72</v>
+        <v>26.2</v>
       </c>
     </row>
     <row r="6">
@@ -553,14 +554,14 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
+          <t>2021-Q4</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>15</v>
+        <v>42</v>
       </c>
       <c r="D6" t="n">
-        <v>16.75</v>
+        <v>30.72</v>
       </c>
     </row>
     <row r="7">
@@ -569,14 +570,14 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
+          <t>2021-Q3</t>
         </is>
       </c>
       <c r="C7" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="D7" t="n">
-        <v>7.58</v>
+        <v>16.75</v>
       </c>
     </row>
     <row r="8">
@@ -585,14 +586,14 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
+          <t>2021-Q2</t>
         </is>
       </c>
       <c r="C8" t="n">
-        <v>27</v>
+        <v>18</v>
       </c>
       <c r="D8" t="n">
-        <v>12.13</v>
+        <v>7.58</v>
       </c>
     </row>
     <row r="9">
@@ -601,14 +602,1186 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C9" t="n">
+        <v>27</v>
+      </c>
+      <c r="D9" t="n">
+        <v>12.13</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C9" t="n">
+      <c r="C10" t="n">
         <v>29</v>
       </c>
-      <c r="D9" t="n">
+      <c r="D10" t="n">
         <v>8.66</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H30"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>100026</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>富国天合稳健混合</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>42.18</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>83.30</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>6.84</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>2.8851</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>002593</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>富国美丽中国混合</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>33.94</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>82.90</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>6.76</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>2.2943</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>006158</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>博时荣享回报灵活配置定期开放混合A</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>27.15</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>67.26</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>2.25</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.6109</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>002910</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>易方达供给改革灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>13.45</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>93.52</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>4.05</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.5447</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>001008</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>工银国企改革主题股票</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>11.18</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>94.65</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>4.70</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.5255</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>007016</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>富国睿泽回报混合</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>6.16</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>79.61</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>6.61</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.4072</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>003165</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>鹏华弘嘉灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>7.73</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>89.32</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>2.59</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.2002</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>009967</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>博时荣泰灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>5.29</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>61.45</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>2.48</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.1312</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>050012</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>博时策略混合</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>4.33</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>77.18</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>2.86</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.1238</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>050007</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>博时平衡配置混合</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>5.24</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>58.77</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>2.35</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.1231</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>003434</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>博时鑫泽灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>4.33</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>59.42</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>2.59</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.1121</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>290006</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>泰信蓝筹精选混合</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>1.49</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>90.74</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>7.33</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.1092</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>005535</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>泰信竞争优选灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>1.52</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>93.46</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>6.22</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.0945</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>860006</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>光大阳光优选一年持有混合A</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>2.19</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>84.89</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>3.86</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.0845</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>860055</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>光大阳光优选一年持有混合B</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>2.19</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>84.89</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>3.86</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.0845</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>160518</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>博时睿远事件驱动灵活配置混合（LOF）</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>2.27</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>82.42</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>2.90</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.0658</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>160519</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>博时睿利事件驱动灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>1.38</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>83.06</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>3.77</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.0520</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>005416</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>鹏华尊惠18个月定期开放混合A</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>4.24</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>34.90</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>1.14</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.0483</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>009169</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>湘财长兴灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>2.90</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>74.89</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>1.50</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.0435</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>004814</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>中欧红利优享灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>1.34</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>93.99</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>3.24</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.0434</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>006159</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>博时荣享回报灵活配置定期开放混合C</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>0.93</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>67.26</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>2.25</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.0209</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>009170</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>湘财长兴灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>0.90</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>74.89</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>1.50</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>0.0135</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>005417</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>鹏华尊惠18个月定期开放混合C</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>1.12</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>34.90</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>1.14</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>0.0128</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>004815</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>中欧红利优享灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>0.28</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>93.99</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>3.24</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>0.0091</t>
+        </is>
+      </c>
+      <c r="H25" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>582003</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>东吴配置优化灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>0.16</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>91.50</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>4.66</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>0.0075</t>
+        </is>
+      </c>
+      <c r="H26" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>006230</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>鹏华研究驱动混合</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>0.47</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>89.25</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>1.48</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>0.0070</t>
+        </is>
+      </c>
+      <c r="H27" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>003166</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>鹏华弘嘉灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>0.09</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>89.32</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>2.59</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>0.0023</t>
+        </is>
+      </c>
+      <c r="H28" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="2" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>003435</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>博时鑫泽灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>0.01</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>59.42</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>2.59</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>0.0003</t>
+        </is>
+      </c>
+      <c r="H29" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="2" t="n">
+        <v>28</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>860056</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>光大阳光优选一年持有混合C</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>84.89</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>3.86</t>
+        </is>
+      </c>
+      <c r="G30" t="n">
+        <v>0</v>
+      </c>
+      <c r="H30" t="n">
+        <v>9</v>
       </c>
     </row>
   </sheetData>
@@ -617,6 +1790,1620 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H42"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>100026</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>富国天合稳健混合</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>36.50</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>81.25</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>5.92</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>2.1608</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>002593</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>富国美丽中国混合A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>24.93</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>80.62</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>4.99</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>1.2440</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>010723</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>中欧价值成长混合A</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>21.90</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>83.01</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>4.49</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.9833</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>519035</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>富国天博创新混合</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>17.22</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>93.47</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>4.73</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.8145</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>166009</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>中欧新动力混合（LOF）A</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>15.62</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>86.77</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>4.37</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.6826</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>010678</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>中欧均衡成长混合A</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>13.63</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>83.93</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>4.75</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.6474</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>009210</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>中欧嘉和三年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>14.41</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>93.03</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>3.67</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.5288</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>010947</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>中欧嘉选混合A</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>12.93</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>83.49</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>3.44</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.4448</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>005421</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>中欧嘉泽灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>6.80</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>93.21</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>5.11</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.3475</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>000513</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>富国高端制造行业股票A</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>6.86</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>93.50</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>4.86</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.3334</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>013993</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>中欧光熠一年持有期混合型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>6.13</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>87.20</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>3.38</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.2072</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>008138</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>富国龙头优势混合</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>4.81</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>93.25</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>4.23</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.2035</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>010616</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>国金自主创新混合C</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>3.24</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>94.49</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>5.80</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.1879</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>011708</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>中欧嘉益一年混合A</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>4.37</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>91.19</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>4.23</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.1849</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>010615</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>国金自主创新混合A</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>3.08</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>94.49</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>5.80</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.1786</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>007016</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>富国睿泽回报混合</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>5.10</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>73.79</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>3.19</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.1627</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>004236</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>中欧新动力混合（LOF）C</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>3.50</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>86.77</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>4.37</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.1530</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>000214</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>广发成长优选混合</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>5.71</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>49.93</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>2.02</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.1153</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>003655</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>信澳新财富灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>3.03</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>78.65</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>3.45</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.1045</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>013994</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>中欧光熠一年持有期混合型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>2.48</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>87.20</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>3.38</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.0838</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>009211</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>中欧嘉和三年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>2.20</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>93.03</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>3.67</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.0807</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>011709</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>中欧嘉益一年混合C</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>1.82</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>91.19</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>4.23</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>0.0770</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>009955</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>广发鑫裕灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>5.73</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>37.57</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>1.21</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>0.0693</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>010724</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>中欧价值成长混合C</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>1.52</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>83.01</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>4.49</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>0.0682</t>
+        </is>
+      </c>
+      <c r="H25" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>014818</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>国金新兴价值混合A</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>1.30</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>87.62</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>5.22</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>0.0679</t>
+        </is>
+      </c>
+      <c r="H26" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>002134</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>广发鑫裕灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>4.68</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>37.57</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>1.21</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>0.0566</t>
+        </is>
+      </c>
+      <c r="H27" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>010375</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>国金鑫悦经济新动能混合A</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>0.89</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>92.34</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>6.10</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>0.0543</t>
+        </is>
+      </c>
+      <c r="H28" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="2" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>011142</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>创金合信新材料新能源股票A</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>1.84</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>86.47</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>2.26</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>0.0416</t>
+        </is>
+      </c>
+      <c r="H29" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="2" t="n">
+        <v>28</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>010679</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>中欧均衡成长混合C</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>0.74</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>83.93</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>4.75</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>0.0352</t>
+        </is>
+      </c>
+      <c r="H30" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="2" t="n">
+        <v>29</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>011566</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>富国美丽中国混合C</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>0.63</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>80.62</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>4.99</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>0.0314</t>
+        </is>
+      </c>
+      <c r="H31" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>014819</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>国金新兴价值混合C</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>0.53</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>87.62</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>5.22</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>0.0277</t>
+        </is>
+      </c>
+      <c r="H32" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="2" t="n">
+        <v>31</v>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>010376</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>国金鑫悦经济新动能混合C</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>0.43</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>92.34</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>6.10</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>0.0262</t>
+        </is>
+      </c>
+      <c r="H33" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="2" t="n">
+        <v>32</v>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>010948</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>中欧嘉选混合C</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>0.74</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>83.49</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>3.44</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>0.0255</t>
+        </is>
+      </c>
+      <c r="H34" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="2" t="n">
+        <v>33</v>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>011143</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>创金合信新材料新能源股票C</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>1.12</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>86.47</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>2.26</t>
+        </is>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>0.0253</t>
+        </is>
+      </c>
+      <c r="H35" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="2" t="n">
+        <v>34</v>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>014321</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>德邦周期精选混合A</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>0.59</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>89.92</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>3.45</t>
+        </is>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>0.0204</t>
+        </is>
+      </c>
+      <c r="H36" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="2" t="n">
+        <v>35</v>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>001883</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>中欧新动力混合（LOF）E</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>0.36</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>86.77</t>
+        </is>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>4.37</t>
+        </is>
+      </c>
+      <c r="G37" t="inlineStr">
+        <is>
+          <t>0.0157</t>
+        </is>
+      </c>
+      <c r="H37" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="2" t="n">
+        <v>36</v>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>012005</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>信澳恒盛混合A</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>1.29</t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>35.97</t>
+        </is>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>0.97</t>
+        </is>
+      </c>
+      <c r="G38" t="inlineStr">
+        <is>
+          <t>0.0125</t>
+        </is>
+      </c>
+      <c r="H38" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="2" t="n">
+        <v>37</v>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>003456</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>信澳新目标灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>0.44</t>
+        </is>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>51.24</t>
+        </is>
+      </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>1.23</t>
+        </is>
+      </c>
+      <c r="G39" t="inlineStr">
+        <is>
+          <t>0.0054</t>
+        </is>
+      </c>
+      <c r="H39" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="2" t="n">
+        <v>38</v>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>014322</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>德邦周期精选混合C</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>0.05</t>
+        </is>
+      </c>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>89.92</t>
+        </is>
+      </c>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>3.45</t>
+        </is>
+      </c>
+      <c r="G40" t="inlineStr">
+        <is>
+          <t>0.0017</t>
+        </is>
+      </c>
+      <c r="H40" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="2" t="n">
+        <v>39</v>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>014930</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>富国高端制造行业股票C</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>0.03</t>
+        </is>
+      </c>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>93.50</t>
+        </is>
+      </c>
+      <c r="F41" t="inlineStr">
+        <is>
+          <t>4.86</t>
+        </is>
+      </c>
+      <c r="G41" t="inlineStr">
+        <is>
+          <t>0.0015</t>
+        </is>
+      </c>
+      <c r="H41" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="2" t="n">
+        <v>40</v>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>012006</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>信澳恒盛混合C</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>0.09</t>
+        </is>
+      </c>
+      <c r="E42" t="inlineStr">
+        <is>
+          <t>35.97</t>
+        </is>
+      </c>
+      <c r="F42" t="inlineStr">
+        <is>
+          <t>0.97</t>
+        </is>
+      </c>
+      <c r="G42" t="inlineStr">
+        <is>
+          <t>0.0009</t>
+        </is>
+      </c>
+      <c r="H42" t="n">
+        <v>7</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -2496,7 +5283,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -4224,7 +7011,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -5800,7 +8587,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -7452,7 +10239,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -8078,7 +10865,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -8810,7 +11597,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -9876,1160 +12663,4 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:H30"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="B1" s="2" t="inlineStr">
-        <is>
-          <t>基金代码</t>
-        </is>
-      </c>
-      <c r="C1" s="2" t="inlineStr">
-        <is>
-          <t>基金名称</t>
-        </is>
-      </c>
-      <c r="D1" s="2" t="inlineStr">
-        <is>
-          <t>基金金额</t>
-        </is>
-      </c>
-      <c r="E1" s="2" t="inlineStr">
-        <is>
-          <t>股票总仓位</t>
-        </is>
-      </c>
-      <c r="F1" s="2" t="inlineStr">
-        <is>
-          <t>仓位占比</t>
-        </is>
-      </c>
-      <c r="G1" s="2" t="inlineStr">
-        <is>
-          <t>持有市值(亿元)</t>
-        </is>
-      </c>
-      <c r="H1" s="2" t="inlineStr">
-        <is>
-          <t>仓位排名</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>100026</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>富国天合稳健混合</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>42.18</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>83.30</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>6.84</t>
-        </is>
-      </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>2.8851</t>
-        </is>
-      </c>
-      <c r="H2" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>002593</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>富国美丽中国混合</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>33.94</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>82.90</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>6.76</t>
-        </is>
-      </c>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>2.2943</t>
-        </is>
-      </c>
-      <c r="H3" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="2" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>006158</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>博时荣享回报灵活配置定期开放混合A</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>27.15</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>67.26</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>2.25</t>
-        </is>
-      </c>
-      <c r="G4" t="inlineStr">
-        <is>
-          <t>0.6109</t>
-        </is>
-      </c>
-      <c r="H4" t="n">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="2" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>002910</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>易方达供给改革灵活配置混合</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>13.45</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>93.52</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>4.05</t>
-        </is>
-      </c>
-      <c r="G5" t="inlineStr">
-        <is>
-          <t>0.5447</t>
-        </is>
-      </c>
-      <c r="H5" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="2" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>001008</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>工银国企改革主题股票</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>11.18</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>94.65</t>
-        </is>
-      </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>4.70</t>
-        </is>
-      </c>
-      <c r="G6" t="inlineStr">
-        <is>
-          <t>0.5255</t>
-        </is>
-      </c>
-      <c r="H6" t="n">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="2" t="n">
-        <v>5</v>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>007016</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>富国睿泽回报混合</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>6.16</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>79.61</t>
-        </is>
-      </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>6.61</t>
-        </is>
-      </c>
-      <c r="G7" t="inlineStr">
-        <is>
-          <t>0.4072</t>
-        </is>
-      </c>
-      <c r="H7" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="2" t="n">
-        <v>6</v>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>003165</t>
-        </is>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>鹏华弘嘉灵活配置混合A</t>
-        </is>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>7.73</t>
-        </is>
-      </c>
-      <c r="E8" t="inlineStr">
-        <is>
-          <t>89.32</t>
-        </is>
-      </c>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t>2.59</t>
-        </is>
-      </c>
-      <c r="G8" t="inlineStr">
-        <is>
-          <t>0.2002</t>
-        </is>
-      </c>
-      <c r="H8" t="n">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" s="2" t="n">
-        <v>7</v>
-      </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>009967</t>
-        </is>
-      </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>博时荣泰灵活配置混合</t>
-        </is>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>5.29</t>
-        </is>
-      </c>
-      <c r="E9" t="inlineStr">
-        <is>
-          <t>61.45</t>
-        </is>
-      </c>
-      <c r="F9" t="inlineStr">
-        <is>
-          <t>2.48</t>
-        </is>
-      </c>
-      <c r="G9" t="inlineStr">
-        <is>
-          <t>0.1312</t>
-        </is>
-      </c>
-      <c r="H9" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" s="2" t="n">
-        <v>8</v>
-      </c>
-      <c r="B10" t="inlineStr">
-        <is>
-          <t>050012</t>
-        </is>
-      </c>
-      <c r="C10" t="inlineStr">
-        <is>
-          <t>博时策略混合</t>
-        </is>
-      </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>4.33</t>
-        </is>
-      </c>
-      <c r="E10" t="inlineStr">
-        <is>
-          <t>77.18</t>
-        </is>
-      </c>
-      <c r="F10" t="inlineStr">
-        <is>
-          <t>2.86</t>
-        </is>
-      </c>
-      <c r="G10" t="inlineStr">
-        <is>
-          <t>0.1238</t>
-        </is>
-      </c>
-      <c r="H10" t="n">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" s="2" t="n">
-        <v>9</v>
-      </c>
-      <c r="B11" t="inlineStr">
-        <is>
-          <t>050007</t>
-        </is>
-      </c>
-      <c r="C11" t="inlineStr">
-        <is>
-          <t>博时平衡配置混合</t>
-        </is>
-      </c>
-      <c r="D11" t="inlineStr">
-        <is>
-          <t>5.24</t>
-        </is>
-      </c>
-      <c r="E11" t="inlineStr">
-        <is>
-          <t>58.77</t>
-        </is>
-      </c>
-      <c r="F11" t="inlineStr">
-        <is>
-          <t>2.35</t>
-        </is>
-      </c>
-      <c r="G11" t="inlineStr">
-        <is>
-          <t>0.1231</t>
-        </is>
-      </c>
-      <c r="H11" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" s="2" t="n">
-        <v>10</v>
-      </c>
-      <c r="B12" t="inlineStr">
-        <is>
-          <t>003434</t>
-        </is>
-      </c>
-      <c r="C12" t="inlineStr">
-        <is>
-          <t>博时鑫泽灵活配置混合A</t>
-        </is>
-      </c>
-      <c r="D12" t="inlineStr">
-        <is>
-          <t>4.33</t>
-        </is>
-      </c>
-      <c r="E12" t="inlineStr">
-        <is>
-          <t>59.42</t>
-        </is>
-      </c>
-      <c r="F12" t="inlineStr">
-        <is>
-          <t>2.59</t>
-        </is>
-      </c>
-      <c r="G12" t="inlineStr">
-        <is>
-          <t>0.1121</t>
-        </is>
-      </c>
-      <c r="H12" t="n">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" s="2" t="n">
-        <v>11</v>
-      </c>
-      <c r="B13" t="inlineStr">
-        <is>
-          <t>290006</t>
-        </is>
-      </c>
-      <c r="C13" t="inlineStr">
-        <is>
-          <t>泰信蓝筹精选混合</t>
-        </is>
-      </c>
-      <c r="D13" t="inlineStr">
-        <is>
-          <t>1.49</t>
-        </is>
-      </c>
-      <c r="E13" t="inlineStr">
-        <is>
-          <t>90.74</t>
-        </is>
-      </c>
-      <c r="F13" t="inlineStr">
-        <is>
-          <t>7.33</t>
-        </is>
-      </c>
-      <c r="G13" t="inlineStr">
-        <is>
-          <t>0.1092</t>
-        </is>
-      </c>
-      <c r="H13" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" s="2" t="n">
-        <v>12</v>
-      </c>
-      <c r="B14" t="inlineStr">
-        <is>
-          <t>005535</t>
-        </is>
-      </c>
-      <c r="C14" t="inlineStr">
-        <is>
-          <t>泰信竞争优选灵活配置混合</t>
-        </is>
-      </c>
-      <c r="D14" t="inlineStr">
-        <is>
-          <t>1.52</t>
-        </is>
-      </c>
-      <c r="E14" t="inlineStr">
-        <is>
-          <t>93.46</t>
-        </is>
-      </c>
-      <c r="F14" t="inlineStr">
-        <is>
-          <t>6.22</t>
-        </is>
-      </c>
-      <c r="G14" t="inlineStr">
-        <is>
-          <t>0.0945</t>
-        </is>
-      </c>
-      <c r="H14" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" s="2" t="n">
-        <v>13</v>
-      </c>
-      <c r="B15" t="inlineStr">
-        <is>
-          <t>860006</t>
-        </is>
-      </c>
-      <c r="C15" t="inlineStr">
-        <is>
-          <t>光大阳光优选一年持有混合A</t>
-        </is>
-      </c>
-      <c r="D15" t="inlineStr">
-        <is>
-          <t>2.19</t>
-        </is>
-      </c>
-      <c r="E15" t="inlineStr">
-        <is>
-          <t>84.89</t>
-        </is>
-      </c>
-      <c r="F15" t="inlineStr">
-        <is>
-          <t>3.86</t>
-        </is>
-      </c>
-      <c r="G15" t="inlineStr">
-        <is>
-          <t>0.0845</t>
-        </is>
-      </c>
-      <c r="H15" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" s="2" t="n">
-        <v>14</v>
-      </c>
-      <c r="B16" t="inlineStr">
-        <is>
-          <t>860055</t>
-        </is>
-      </c>
-      <c r="C16" t="inlineStr">
-        <is>
-          <t>光大阳光优选一年持有混合B</t>
-        </is>
-      </c>
-      <c r="D16" t="inlineStr">
-        <is>
-          <t>2.19</t>
-        </is>
-      </c>
-      <c r="E16" t="inlineStr">
-        <is>
-          <t>84.89</t>
-        </is>
-      </c>
-      <c r="F16" t="inlineStr">
-        <is>
-          <t>3.86</t>
-        </is>
-      </c>
-      <c r="G16" t="inlineStr">
-        <is>
-          <t>0.0845</t>
-        </is>
-      </c>
-      <c r="H16" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" s="2" t="n">
-        <v>15</v>
-      </c>
-      <c r="B17" t="inlineStr">
-        <is>
-          <t>160518</t>
-        </is>
-      </c>
-      <c r="C17" t="inlineStr">
-        <is>
-          <t>博时睿远事件驱动灵活配置混合（LOF）</t>
-        </is>
-      </c>
-      <c r="D17" t="inlineStr">
-        <is>
-          <t>2.27</t>
-        </is>
-      </c>
-      <c r="E17" t="inlineStr">
-        <is>
-          <t>82.42</t>
-        </is>
-      </c>
-      <c r="F17" t="inlineStr">
-        <is>
-          <t>2.90</t>
-        </is>
-      </c>
-      <c r="G17" t="inlineStr">
-        <is>
-          <t>0.0658</t>
-        </is>
-      </c>
-      <c r="H17" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" s="2" t="n">
-        <v>16</v>
-      </c>
-      <c r="B18" t="inlineStr">
-        <is>
-          <t>160519</t>
-        </is>
-      </c>
-      <c r="C18" t="inlineStr">
-        <is>
-          <t>博时睿利事件驱动灵活配置混合</t>
-        </is>
-      </c>
-      <c r="D18" t="inlineStr">
-        <is>
-          <t>1.38</t>
-        </is>
-      </c>
-      <c r="E18" t="inlineStr">
-        <is>
-          <t>83.06</t>
-        </is>
-      </c>
-      <c r="F18" t="inlineStr">
-        <is>
-          <t>3.77</t>
-        </is>
-      </c>
-      <c r="G18" t="inlineStr">
-        <is>
-          <t>0.0520</t>
-        </is>
-      </c>
-      <c r="H18" t="n">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" s="2" t="n">
-        <v>17</v>
-      </c>
-      <c r="B19" t="inlineStr">
-        <is>
-          <t>005416</t>
-        </is>
-      </c>
-      <c r="C19" t="inlineStr">
-        <is>
-          <t>鹏华尊惠18个月定期开放混合A</t>
-        </is>
-      </c>
-      <c r="D19" t="inlineStr">
-        <is>
-          <t>4.24</t>
-        </is>
-      </c>
-      <c r="E19" t="inlineStr">
-        <is>
-          <t>34.90</t>
-        </is>
-      </c>
-      <c r="F19" t="inlineStr">
-        <is>
-          <t>1.14</t>
-        </is>
-      </c>
-      <c r="G19" t="inlineStr">
-        <is>
-          <t>0.0483</t>
-        </is>
-      </c>
-      <c r="H19" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" s="2" t="n">
-        <v>18</v>
-      </c>
-      <c r="B20" t="inlineStr">
-        <is>
-          <t>009169</t>
-        </is>
-      </c>
-      <c r="C20" t="inlineStr">
-        <is>
-          <t>湘财长兴灵活配置混合A</t>
-        </is>
-      </c>
-      <c r="D20" t="inlineStr">
-        <is>
-          <t>2.90</t>
-        </is>
-      </c>
-      <c r="E20" t="inlineStr">
-        <is>
-          <t>74.89</t>
-        </is>
-      </c>
-      <c r="F20" t="inlineStr">
-        <is>
-          <t>1.50</t>
-        </is>
-      </c>
-      <c r="G20" t="inlineStr">
-        <is>
-          <t>0.0435</t>
-        </is>
-      </c>
-      <c r="H20" t="n">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" s="2" t="n">
-        <v>19</v>
-      </c>
-      <c r="B21" t="inlineStr">
-        <is>
-          <t>004814</t>
-        </is>
-      </c>
-      <c r="C21" t="inlineStr">
-        <is>
-          <t>中欧红利优享灵活配置混合A</t>
-        </is>
-      </c>
-      <c r="D21" t="inlineStr">
-        <is>
-          <t>1.34</t>
-        </is>
-      </c>
-      <c r="E21" t="inlineStr">
-        <is>
-          <t>93.99</t>
-        </is>
-      </c>
-      <c r="F21" t="inlineStr">
-        <is>
-          <t>3.24</t>
-        </is>
-      </c>
-      <c r="G21" t="inlineStr">
-        <is>
-          <t>0.0434</t>
-        </is>
-      </c>
-      <c r="H21" t="n">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" s="2" t="n">
-        <v>20</v>
-      </c>
-      <c r="B22" t="inlineStr">
-        <is>
-          <t>006159</t>
-        </is>
-      </c>
-      <c r="C22" t="inlineStr">
-        <is>
-          <t>博时荣享回报灵活配置定期开放混合C</t>
-        </is>
-      </c>
-      <c r="D22" t="inlineStr">
-        <is>
-          <t>0.93</t>
-        </is>
-      </c>
-      <c r="E22" t="inlineStr">
-        <is>
-          <t>67.26</t>
-        </is>
-      </c>
-      <c r="F22" t="inlineStr">
-        <is>
-          <t>2.25</t>
-        </is>
-      </c>
-      <c r="G22" t="inlineStr">
-        <is>
-          <t>0.0209</t>
-        </is>
-      </c>
-      <c r="H22" t="n">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="23">
-      <c r="A23" s="2" t="n">
-        <v>21</v>
-      </c>
-      <c r="B23" t="inlineStr">
-        <is>
-          <t>009170</t>
-        </is>
-      </c>
-      <c r="C23" t="inlineStr">
-        <is>
-          <t>湘财长兴灵活配置混合C</t>
-        </is>
-      </c>
-      <c r="D23" t="inlineStr">
-        <is>
-          <t>0.90</t>
-        </is>
-      </c>
-      <c r="E23" t="inlineStr">
-        <is>
-          <t>74.89</t>
-        </is>
-      </c>
-      <c r="F23" t="inlineStr">
-        <is>
-          <t>1.50</t>
-        </is>
-      </c>
-      <c r="G23" t="inlineStr">
-        <is>
-          <t>0.0135</t>
-        </is>
-      </c>
-      <c r="H23" t="n">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="24">
-      <c r="A24" s="2" t="n">
-        <v>22</v>
-      </c>
-      <c r="B24" t="inlineStr">
-        <is>
-          <t>005417</t>
-        </is>
-      </c>
-      <c r="C24" t="inlineStr">
-        <is>
-          <t>鹏华尊惠18个月定期开放混合C</t>
-        </is>
-      </c>
-      <c r="D24" t="inlineStr">
-        <is>
-          <t>1.12</t>
-        </is>
-      </c>
-      <c r="E24" t="inlineStr">
-        <is>
-          <t>34.90</t>
-        </is>
-      </c>
-      <c r="F24" t="inlineStr">
-        <is>
-          <t>1.14</t>
-        </is>
-      </c>
-      <c r="G24" t="inlineStr">
-        <is>
-          <t>0.0128</t>
-        </is>
-      </c>
-      <c r="H24" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="25">
-      <c r="A25" s="2" t="n">
-        <v>23</v>
-      </c>
-      <c r="B25" t="inlineStr">
-        <is>
-          <t>004815</t>
-        </is>
-      </c>
-      <c r="C25" t="inlineStr">
-        <is>
-          <t>中欧红利优享灵活配置混合C</t>
-        </is>
-      </c>
-      <c r="D25" t="inlineStr">
-        <is>
-          <t>0.28</t>
-        </is>
-      </c>
-      <c r="E25" t="inlineStr">
-        <is>
-          <t>93.99</t>
-        </is>
-      </c>
-      <c r="F25" t="inlineStr">
-        <is>
-          <t>3.24</t>
-        </is>
-      </c>
-      <c r="G25" t="inlineStr">
-        <is>
-          <t>0.0091</t>
-        </is>
-      </c>
-      <c r="H25" t="n">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="26">
-      <c r="A26" s="2" t="n">
-        <v>24</v>
-      </c>
-      <c r="B26" t="inlineStr">
-        <is>
-          <t>582003</t>
-        </is>
-      </c>
-      <c r="C26" t="inlineStr">
-        <is>
-          <t>东吴配置优化灵活配置混合</t>
-        </is>
-      </c>
-      <c r="D26" t="inlineStr">
-        <is>
-          <t>0.16</t>
-        </is>
-      </c>
-      <c r="E26" t="inlineStr">
-        <is>
-          <t>91.50</t>
-        </is>
-      </c>
-      <c r="F26" t="inlineStr">
-        <is>
-          <t>4.66</t>
-        </is>
-      </c>
-      <c r="G26" t="inlineStr">
-        <is>
-          <t>0.0075</t>
-        </is>
-      </c>
-      <c r="H26" t="n">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="27">
-      <c r="A27" s="2" t="n">
-        <v>25</v>
-      </c>
-      <c r="B27" t="inlineStr">
-        <is>
-          <t>006230</t>
-        </is>
-      </c>
-      <c r="C27" t="inlineStr">
-        <is>
-          <t>鹏华研究驱动混合</t>
-        </is>
-      </c>
-      <c r="D27" t="inlineStr">
-        <is>
-          <t>0.47</t>
-        </is>
-      </c>
-      <c r="E27" t="inlineStr">
-        <is>
-          <t>89.25</t>
-        </is>
-      </c>
-      <c r="F27" t="inlineStr">
-        <is>
-          <t>1.48</t>
-        </is>
-      </c>
-      <c r="G27" t="inlineStr">
-        <is>
-          <t>0.0070</t>
-        </is>
-      </c>
-      <c r="H27" t="n">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="28">
-      <c r="A28" s="2" t="n">
-        <v>26</v>
-      </c>
-      <c r="B28" t="inlineStr">
-        <is>
-          <t>003166</t>
-        </is>
-      </c>
-      <c r="C28" t="inlineStr">
-        <is>
-          <t>鹏华弘嘉灵活配置混合C</t>
-        </is>
-      </c>
-      <c r="D28" t="inlineStr">
-        <is>
-          <t>0.09</t>
-        </is>
-      </c>
-      <c r="E28" t="inlineStr">
-        <is>
-          <t>89.32</t>
-        </is>
-      </c>
-      <c r="F28" t="inlineStr">
-        <is>
-          <t>2.59</t>
-        </is>
-      </c>
-      <c r="G28" t="inlineStr">
-        <is>
-          <t>0.0023</t>
-        </is>
-      </c>
-      <c r="H28" t="n">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="29">
-      <c r="A29" s="2" t="n">
-        <v>27</v>
-      </c>
-      <c r="B29" t="inlineStr">
-        <is>
-          <t>003435</t>
-        </is>
-      </c>
-      <c r="C29" t="inlineStr">
-        <is>
-          <t>博时鑫泽灵活配置混合C</t>
-        </is>
-      </c>
-      <c r="D29" t="inlineStr">
-        <is>
-          <t>0.01</t>
-        </is>
-      </c>
-      <c r="E29" t="inlineStr">
-        <is>
-          <t>59.42</t>
-        </is>
-      </c>
-      <c r="F29" t="inlineStr">
-        <is>
-          <t>2.59</t>
-        </is>
-      </c>
-      <c r="G29" t="inlineStr">
-        <is>
-          <t>0.0003</t>
-        </is>
-      </c>
-      <c r="H29" t="n">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="30">
-      <c r="A30" s="2" t="n">
-        <v>28</v>
-      </c>
-      <c r="B30" t="inlineStr">
-        <is>
-          <t>860056</t>
-        </is>
-      </c>
-      <c r="C30" t="inlineStr">
-        <is>
-          <t>光大阳光优选一年持有混合C</t>
-        </is>
-      </c>
-      <c r="D30" t="inlineStr">
-        <is>
-          <t>0.00</t>
-        </is>
-      </c>
-      <c r="E30" t="inlineStr">
-        <is>
-          <t>84.89</t>
-        </is>
-      </c>
-      <c r="F30" t="inlineStr">
-        <is>
-          <t>3.86</t>
-        </is>
-      </c>
-      <c r="G30" t="n">
-        <v>0</v>
-      </c>
-      <c r="H30" t="n">
-        <v>9</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
 </file>